--- a/biology/Médecine/Jules_Baillarger/Jules_Baillarger.xlsx
+++ b/biology/Médecine/Jules_Baillarger/Jules_Baillarger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Gabriel François Baillarger, né le 26 mars 1809 à Montbazon et mort le 31 décembre 1890, à Paris, est un médecin aliéniste français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Baillarger est le fils de François Baillarger, propriétaire à Montbazon et d'Anne Eugénie Farinade[1].
-Il est l'élève de Jean-Étienne Esquirol et interne à la Maison royale de Charenton. Il soutient en 1837 une thèse de médecine intitulée « Du siège de quelques hémorragies méningées »[2]. Il devient alors médecin-chef à l'hôpital de la Salpêtrière à Paris, fonction qu'il conserve pendant trente ans[3].
-Il est cofondateur de la revue Annales médico-psychologiques[4]. Il a particulièrement travaillé sur les hallucinations, la mélancolie, la paralysie générale et la « folie à double forme » ou trouble bipolaire.
-Il est élu membre de l'Académie de médecine en 1847 et en est le président en 1878[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Baillarger est le fils de François Baillarger, propriétaire à Montbazon et d'Anne Eugénie Farinade.
+Il est l'élève de Jean-Étienne Esquirol et interne à la Maison royale de Charenton. Il soutient en 1837 une thèse de médecine intitulée « Du siège de quelques hémorragies méningées ». Il devient alors médecin-chef à l'hôpital de la Salpêtrière à Paris, fonction qu'il conserve pendant trente ans.
+Il est cofondateur de la revue Annales médico-psychologiques. Il a particulièrement travaillé sur les hallucinations, la mélancolie, la paralysie générale et la « folie à double forme » ou trouble bipolaire.
+Il est élu membre de l'Académie de médecine en 1847 et en est le président en 1878.
 Il meurt à Paris en 1890 et est inhumé au cimetière du Montparnasse.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches sur la structure de la couche corticale des circonvolutions du cerveau, 1840
 Des hallucinations, des causes qui les produisent et des maladies caractérisent, Mémoires de l’Académie de médecine, 1842
@@ -583,9 +599,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Officier de la Légion d'honneur par décret du 7 août 1877[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Officier de la Légion d'honneur par décret du 7 août 1877.</t>
         </is>
       </c>
     </row>
